--- a/assets/templates/import-titles-template.xlsx
+++ b/assets/templates/import-titles-template.xlsx
@@ -8,11 +8,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mglXj5Or5+N3uXtXEv/B0iFV/ak5A=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="577">
   <si>
     <t>Import Titles (Metadata)</t>
   </si>
@@ -1906,7 +1911,7 @@
     <t>Valencian</t>
   </si>
   <si>
-    <t>Greeland</t>
+    <t>Greenland</t>
   </si>
   <si>
     <t>Vietnamese</t>
@@ -1921,7 +1926,7 @@
     <t>Gaum</t>
   </si>
   <si>
-    <t>Gautemala</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Guernsey</t>
@@ -2095,6 +2100,9 @@
     <t>Monaco</t>
   </si>
   <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -2362,7 +2370,7 @@
     <t>Vatican City</t>
   </si>
   <si>
-    <t>Venezuele</t>
+    <t>Venezuela</t>
   </si>
   <si>
     <t>Vietnam</t>
@@ -2483,6 +2491,7 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -2821,7 +2830,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2999,13 +3008,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="29" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -11069,786 +11075,786 @@
     <row r="218" ht="12.75" customHeight="1"/>
     <row r="219" ht="12.75" customHeight="1"/>
     <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="234">
     <mergeCell ref="AL11:AM11"/>
@@ -12087,110 +12093,110 @@
     <mergeCell ref="BL85:BL94"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X13 Z13">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="E25:F25 F45 F65 F85">
-      <formula1>'Pre-defined lists'!$G$2:$G$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE13:AF13">
-      <formula1>'Pre-defined lists'!$Q$2:$Q$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="D15 D25 D35 D45 D55 D65 D75 D85 D95">
-      <formula1>'Pre-defined lists'!$G$2:$G$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="O15:O104">
-      <formula1>'Pre-defined lists'!$J$2:$J$9</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AB15:AB104">
+      <formula1>'Pre-defined lists'!$S$2:$S$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AL15:AL104">
       <formula1>'Pre-defined lists'!$M$2:$M$5</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="M15:M104 P15:Q104 AQ15:AQ104 AU15:AU104">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W13">
+      <formula1>'Pre-defined lists'!$N$2:$N$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="U15:U104">
+      <formula1>'Pre-defined lists'!$A$2:$A$29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V13">
+      <formula1>'Pre-defined lists'!$I$2:$I$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AO15:AO104">
+      <formula1>'Pre-defined lists'!$K$2:$K$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T13">
+      <formula1>'Pre-defined lists'!$M$2:$M$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AA15:AA104">
+      <formula1>'Pre-defined lists'!$V$2:$V$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="T15:T104 BH15:BH104">
+      <formula1>'Pre-defined lists'!$F$2:$F$85</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC13">
       <formula1>'Pre-defined lists'!$P$2:$P$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="BD15 BD25 BD35 BD45 BD55 BD65 BD75 BD85 BD95">
-      <formula1>'Pre-defined lists'!$P$2:$P$7</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D13:L13">
+      <formula1>'Pre-defined lists'!$G$2:$G$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="G15 G25 G35 G45 G55 G65 G75 G85 G95">
-      <formula1>'Pre-defined lists'!$H$2:$H$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="T15:T104 BH15:BH104">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG13">
       <formula1>'Pre-defined lists'!$F$2:$F$85</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AP15 AP25 AP35 AP45 AP55 AP65 AP75 AP85 AP95">
       <formula1>'Pre-defined lists'!$I$2:$I$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="M15:M104 P15:Q104 AQ15:AQ104 AU15:AU104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="G15 G25 G35 G45 G55 G65 G75 G85 G95">
+      <formula1>'Pre-defined lists'!$H$2:$H$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AE15:AE104">
+      <formula1>'Pre-defined lists'!$T$2:$T$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="I15 I25 I35 I45 I55 I65 I75 I85 I95">
+      <formula1>'Pre-defined lists'!$U$2:$U$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AE13:AF13">
+      <formula1>'Pre-defined lists'!$Q$2:$Q$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="BC15 BC25 BC35 BC45 BC55 BC65 BC75 BC85 BC95">
+      <formula1>'Pre-defined lists'!$O$2:$O$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X13 Z13">
       <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="D15 D25 D35 D45 D55 D65 D75 D85 D95">
+      <formula1>'Pre-defined lists'!$G$2:$G$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="E25:F25 F45 F65 F85">
+      <formula1>'Pre-defined lists'!$G$2:$G$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AR15:AR33 AR35:AR53 AR55:AR73 AR75:AR93 AR95:AR104">
+      <formula1>'Pre-defined lists'!$Y$2:$Y$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="BF15 BF25 BF35 BF45 BF55 BF65 BF75 BF85 BF95">
+      <formula1>'Pre-defined lists'!$Q$2:$Q$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="BE15 BE25 BE35 BE45 BE55 BE65 BE75 BE85 BE95">
+      <formula1>'Pre-defined lists'!$R$2:$R$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="R15:R33 R35:R53 R55:R73 R75:R93 R95:R104">
+      <formula1>'Pre-defined lists'!$C$2:$C$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="O15:O104">
+      <formula1>'Pre-defined lists'!$J$2:$J$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="BD15 BD25 BD35 BD45 BD55 BD65 BD75 BD85 BD95">
+      <formula1>'Pre-defined lists'!$P$2:$P$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD13">
+      <formula1>'Pre-defined lists'!$R$2:$R$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AT15:AT104">
+      <formula1>'Pre-defined lists'!$E$2:$E$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y13">
+      <formula1>'Pre-defined lists'!$E$2:$E$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M13">
       <formula1>'Pre-defined lists'!$A$2:$A$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V13">
-      <formula1>'Pre-defined lists'!$I$2:$I$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="U15:U104">
-      <formula1>'Pre-defined lists'!$A$2:$A$29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AB15:AB104">
-      <formula1>'Pre-defined lists'!$S$2:$S$14</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="BF15 BF25 BF35 BF45 BF55 BF65 BF75 BF85 BF95">
-      <formula1>'Pre-defined lists'!$Q$2:$Q$8</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="X15 X25 X35 X45 X55 X65 X75 X85 X95">
       <formula1>'Pre-defined lists'!$W$2:$W$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="I15 I25 I35 I45 I55 I65 I75 I85 I95">
-      <formula1>'Pre-defined lists'!$U$2:$U$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG13">
-      <formula1>'Pre-defined lists'!$F$2:$F$85</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AX15:AX104">
-      <formula1>'Pre-defined lists'!$B$2:$B$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="BG15 BG25 BG35 BG45 BG55 BG65 BG75 BG85 BG95 BI15:BK104">
       <formula1>'Pre-defined lists'!$X$2:$X$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T13">
-      <formula1>'Pre-defined lists'!$M$2:$M$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W13">
-      <formula1>'Pre-defined lists'!$N$2:$N$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AE15:AE104">
-      <formula1>'Pre-defined lists'!$T$2:$T$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y13">
-      <formula1>'Pre-defined lists'!$E$2:$E$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="R15:R33 R35:R53 R55:R73 R75:R93 R95:R104">
-      <formula1>'Pre-defined lists'!$C$2:$C$14</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AO15:AO104">
-      <formula1>'Pre-defined lists'!$K$2:$K$15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="BE15 BE25 BE35 BE45 BE55 BE65 BE75 BE85 BE95">
-      <formula1>'Pre-defined lists'!$R$2:$R$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD13">
-      <formula1>'Pre-defined lists'!$R$2:$R$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="BC15 BC25 BC35 BC45 BC55 BC65 BC75 BC85 BC95">
-      <formula1>'Pre-defined lists'!$O$2:$O$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D13:L13">
-      <formula1>'Pre-defined lists'!$G$2:$G$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AT15:AT104">
-      <formula1>'Pre-defined lists'!$E$2:$E$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AA15:AA104">
-      <formula1>'Pre-defined lists'!$V$2:$V$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List of choice - Please select a choice from that list." sqref="AR15:AR33 AR35:AR53 AR55:AR73 AR75:AR93 AR95:AR104">
-      <formula1>'Pre-defined lists'!$Y$2:$Y$4</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="AX15:AX104">
+      <formula1>'Pre-defined lists'!$B$2:$B$13</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -12217,7 +12223,6 @@
     <col customWidth="1" min="5" max="18" width="20.86"/>
     <col customWidth="1" min="19" max="19" width="32.86"/>
     <col customWidth="1" min="20" max="25" width="20.86"/>
-    <col customWidth="1" min="26" max="26" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -12307,10 +12312,10 @@
       <c r="C2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="76" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="75" t="s">
@@ -12384,10 +12389,10 @@
       <c r="C3" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="76" t="s">
         <v>123</v>
       </c>
       <c r="F3" s="75" t="s">
@@ -12461,10 +12466,10 @@
       <c r="C4" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="76" t="s">
         <v>145</v>
       </c>
       <c r="F4" s="75" t="s">
@@ -12534,10 +12539,10 @@
       <c r="C5" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F5" s="75" t="s">
@@ -12597,10 +12602,10 @@
       <c r="C6" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="76" t="s">
         <v>183</v>
       </c>
       <c r="F6" s="75" t="s">
@@ -12654,10 +12659,10 @@
       <c r="C7" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="77"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="75" t="s">
         <v>197</v>
       </c>
@@ -12707,7 +12712,7 @@
       <c r="C8" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="27" t="s">
         <v>209</v>
       </c>
       <c r="E8" s="1"/>
@@ -12758,7 +12763,7 @@
       <c r="C9" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="27" t="s">
         <v>221</v>
       </c>
       <c r="E9" s="1"/>
@@ -12803,7 +12808,7 @@
       <c r="C10" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="27" t="s">
         <v>230</v>
       </c>
       <c r="E10" s="1"/>
@@ -12846,7 +12851,7 @@
       <c r="C11" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="27" t="s">
         <v>238</v>
       </c>
       <c r="E11" s="1"/>
@@ -12887,7 +12892,7 @@
       <c r="C12" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="27" t="s">
         <v>245</v>
       </c>
       <c r="E12" s="1"/>
@@ -12928,7 +12933,7 @@
       <c r="C13" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="27" t="s">
         <v>252</v>
       </c>
       <c r="E13" s="1"/>
@@ -12967,7 +12972,7 @@
       <c r="C14" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="27" t="s">
         <v>258</v>
       </c>
       <c r="E14" s="1"/>
@@ -13004,7 +13009,7 @@
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="27" t="s">
         <v>263</v>
       </c>
       <c r="E15" s="1"/>
@@ -13039,7 +13044,7 @@
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="27" t="s">
         <v>267</v>
       </c>
       <c r="E16" s="1"/>
@@ -13072,7 +13077,7 @@
       </c>
       <c r="B17" s="75"/>
       <c r="C17" s="75"/>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="27" t="s">
         <v>269</v>
       </c>
       <c r="E17" s="1"/>
@@ -13105,7 +13110,7 @@
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="27" t="s">
         <v>272</v>
       </c>
       <c r="E18" s="1"/>
@@ -13138,7 +13143,7 @@
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="27" t="s">
         <v>275</v>
       </c>
       <c r="E19" s="1"/>
@@ -13171,7 +13176,7 @@
       </c>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="27" t="s">
         <v>278</v>
       </c>
       <c r="E20" s="1"/>
@@ -13204,7 +13209,7 @@
       </c>
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="27" t="s">
         <v>281</v>
       </c>
       <c r="E21" s="1"/>
@@ -13237,7 +13242,7 @@
       </c>
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="27" t="s">
         <v>284</v>
       </c>
       <c r="E22" s="1"/>
@@ -13270,10 +13275,10 @@
       </c>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="E23" s="77"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="75" t="s">
         <v>288</v>
       </c>
@@ -13303,10 +13308,10 @@
       </c>
       <c r="B24" s="75"/>
       <c r="C24" s="75"/>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="E24" s="77"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="75" t="s">
         <v>291</v>
       </c>
@@ -13336,10 +13341,10 @@
       </c>
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="E25" s="77"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="75" t="s">
         <v>294</v>
       </c>
@@ -13369,10 +13374,10 @@
       </c>
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="E26" s="77"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="75" t="s">
         <v>297</v>
       </c>
@@ -13402,10 +13407,10 @@
       </c>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
-      <c r="D27" s="76" t="s">
+      <c r="D27" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="E27" s="77"/>
+      <c r="E27" s="76"/>
       <c r="F27" s="75" t="s">
         <v>300</v>
       </c>
@@ -13435,10 +13440,10 @@
       </c>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="E28" s="77"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="75" t="s">
         <v>303</v>
       </c>
@@ -13468,10 +13473,10 @@
       </c>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="E29" s="77"/>
+      <c r="E29" s="76"/>
       <c r="F29" s="75" t="s">
         <v>306</v>
       </c>
@@ -13499,10 +13504,10 @@
       <c r="A30" s="75"/>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="E30" s="77"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="75" t="s">
         <v>308</v>
       </c>
@@ -13530,10 +13535,10 @@
       <c r="A31" s="75"/>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="E31" s="77"/>
+      <c r="E31" s="76"/>
       <c r="F31" s="75" t="s">
         <v>310</v>
       </c>
@@ -13561,10 +13566,10 @@
       <c r="A32" s="75"/>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E32" s="77"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="75" t="s">
         <v>312</v>
       </c>
@@ -13592,10 +13597,10 @@
       <c r="A33" s="75"/>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E33" s="77"/>
+      <c r="E33" s="76"/>
       <c r="F33" s="75" t="s">
         <v>314</v>
       </c>
@@ -13623,10 +13628,10 @@
       <c r="A34" s="75"/>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="E34" s="77"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="75" t="s">
         <v>316</v>
       </c>
@@ -13654,10 +13659,10 @@
       <c r="A35" s="75"/>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="E35" s="77"/>
+      <c r="E35" s="76"/>
       <c r="F35" s="75" t="s">
         <v>318</v>
       </c>
@@ -13685,10 +13690,10 @@
       <c r="A36" s="75"/>
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="E36" s="77"/>
+      <c r="E36" s="76"/>
       <c r="F36" s="75" t="s">
         <v>320</v>
       </c>
@@ -13716,10 +13721,10 @@
       <c r="A37" s="75"/>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="E37" s="77"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="75" t="s">
         <v>322</v>
       </c>
@@ -13747,10 +13752,10 @@
       <c r="A38" s="75"/>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
-      <c r="D38" s="76" t="s">
+      <c r="D38" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="E38" s="77"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="75" t="s">
         <v>324</v>
       </c>
@@ -13778,10 +13783,10 @@
       <c r="A39" s="75"/>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
-      <c r="D39" s="76" t="s">
+      <c r="D39" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="E39" s="77"/>
+      <c r="E39" s="76"/>
       <c r="F39" s="75" t="s">
         <v>326</v>
       </c>
@@ -13809,10 +13814,10 @@
       <c r="A40" s="75"/>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
-      <c r="D40" s="76" t="s">
+      <c r="D40" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="E40" s="77"/>
+      <c r="E40" s="76"/>
       <c r="F40" s="75" t="s">
         <v>328</v>
       </c>
@@ -13840,10 +13845,10 @@
       <c r="A41" s="75"/>
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E41" s="77"/>
+      <c r="E41" s="76"/>
       <c r="F41" s="75" t="s">
         <v>330</v>
       </c>
@@ -13871,10 +13876,10 @@
       <c r="A42" s="75"/>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
-      <c r="D42" s="76" t="s">
+      <c r="D42" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="E42" s="77"/>
+      <c r="E42" s="76"/>
       <c r="F42" s="75" t="s">
         <v>332</v>
       </c>
@@ -13902,10 +13907,10 @@
       <c r="A43" s="75"/>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
-      <c r="D43" s="76" t="s">
+      <c r="D43" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="E43" s="77"/>
+      <c r="E43" s="76"/>
       <c r="F43" s="75" t="s">
         <v>334</v>
       </c>
@@ -13933,10 +13938,10 @@
       <c r="A44" s="75"/>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
-      <c r="D44" s="76" t="s">
+      <c r="D44" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="E44" s="77"/>
+      <c r="E44" s="76"/>
       <c r="F44" s="75" t="s">
         <v>336</v>
       </c>
@@ -13964,10 +13969,10 @@
       <c r="A45" s="75"/>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
-      <c r="D45" s="76" t="s">
+      <c r="D45" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="E45" s="77"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="75" t="s">
         <v>338</v>
       </c>
@@ -13995,10 +14000,10 @@
       <c r="A46" s="75"/>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
-      <c r="D46" s="76" t="s">
+      <c r="D46" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="E46" s="77"/>
+      <c r="E46" s="76"/>
       <c r="F46" s="75" t="s">
         <v>340</v>
       </c>
@@ -14026,10 +14031,10 @@
       <c r="A47" s="75"/>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
-      <c r="D47" s="76" t="s">
+      <c r="D47" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="E47" s="77"/>
+      <c r="E47" s="76"/>
       <c r="F47" s="75" t="s">
         <v>342</v>
       </c>
@@ -14057,10 +14062,10 @@
       <c r="A48" s="75"/>
       <c r="B48" s="75"/>
       <c r="C48" s="75"/>
-      <c r="D48" s="76" t="s">
+      <c r="D48" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="E48" s="77"/>
+      <c r="E48" s="76"/>
       <c r="F48" s="75" t="s">
         <v>344</v>
       </c>
@@ -14088,10 +14093,10 @@
       <c r="A49" s="75"/>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
-      <c r="D49" s="76" t="s">
+      <c r="D49" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="E49" s="77"/>
+      <c r="E49" s="76"/>
       <c r="F49" s="75" t="s">
         <v>346</v>
       </c>
@@ -14119,10 +14124,10 @@
       <c r="A50" s="75"/>
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
-      <c r="D50" s="76" t="s">
+      <c r="D50" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="E50" s="77"/>
+      <c r="E50" s="76"/>
       <c r="F50" s="75" t="s">
         <v>348</v>
       </c>
@@ -14150,10 +14155,10 @@
       <c r="A51" s="75"/>
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
-      <c r="D51" s="76" t="s">
+      <c r="D51" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="E51" s="77"/>
+      <c r="E51" s="76"/>
       <c r="F51" s="75" t="s">
         <v>350</v>
       </c>
@@ -14181,10 +14186,10 @@
       <c r="A52" s="75"/>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
-      <c r="D52" s="76" t="s">
+      <c r="D52" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="E52" s="77"/>
+      <c r="E52" s="76"/>
       <c r="F52" s="75" t="s">
         <v>352</v>
       </c>
@@ -14212,10 +14217,10 @@
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
-      <c r="D53" s="76" t="s">
+      <c r="D53" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="E53" s="77"/>
+      <c r="E53" s="76"/>
       <c r="F53" s="75" t="s">
         <v>354</v>
       </c>
@@ -14243,10 +14248,10 @@
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
-      <c r="D54" s="76" t="s">
+      <c r="D54" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="E54" s="77"/>
+      <c r="E54" s="76"/>
       <c r="F54" s="75" t="s">
         <v>356</v>
       </c>
@@ -14274,10 +14279,10 @@
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
-      <c r="D55" s="76" t="s">
+      <c r="D55" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="E55" s="77"/>
+      <c r="E55" s="76"/>
       <c r="F55" s="75" t="s">
         <v>358</v>
       </c>
@@ -14305,10 +14310,10 @@
       <c r="A56" s="75"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
-      <c r="D56" s="76" t="s">
+      <c r="D56" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="E56" s="77"/>
+      <c r="E56" s="76"/>
       <c r="F56" s="75" t="s">
         <v>360</v>
       </c>
@@ -14336,10 +14341,10 @@
       <c r="A57" s="75"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
-      <c r="D57" s="76" t="s">
+      <c r="D57" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E57" s="77"/>
+      <c r="E57" s="76"/>
       <c r="F57" s="75" t="s">
         <v>362</v>
       </c>
@@ -14367,10 +14372,10 @@
       <c r="A58" s="75"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
-      <c r="D58" s="76" t="s">
+      <c r="D58" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="E58" s="77"/>
+      <c r="E58" s="76"/>
       <c r="F58" s="75" t="s">
         <v>364</v>
       </c>
@@ -14398,10 +14403,10 @@
       <c r="A59" s="75"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
-      <c r="D59" s="76" t="s">
+      <c r="D59" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="E59" s="77"/>
+      <c r="E59" s="76"/>
       <c r="F59" s="75" t="s">
         <v>366</v>
       </c>
@@ -14429,10 +14434,10 @@
       <c r="A60" s="75"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
-      <c r="D60" s="76" t="s">
+      <c r="D60" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="E60" s="77"/>
+      <c r="E60" s="76"/>
       <c r="F60" s="75" t="s">
         <v>368</v>
       </c>
@@ -14460,10 +14465,10 @@
       <c r="A61" s="75"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
-      <c r="D61" s="76" t="s">
+      <c r="D61" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="E61" s="77"/>
+      <c r="E61" s="76"/>
       <c r="F61" s="75" t="s">
         <v>370</v>
       </c>
@@ -14491,10 +14496,10 @@
       <c r="A62" s="75"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
-      <c r="D62" s="76" t="s">
+      <c r="D62" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="E62" s="77"/>
+      <c r="E62" s="76"/>
       <c r="F62" s="75" t="s">
         <v>372</v>
       </c>
@@ -14522,10 +14527,10 @@
       <c r="A63" s="75"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
-      <c r="D63" s="76" t="s">
+      <c r="D63" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="E63" s="77"/>
+      <c r="E63" s="76"/>
       <c r="F63" s="75" t="s">
         <v>374</v>
       </c>
@@ -14553,10 +14558,10 @@
       <c r="A64" s="75"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
-      <c r="D64" s="76" t="s">
+      <c r="D64" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="E64" s="77"/>
+      <c r="E64" s="76"/>
       <c r="F64" s="75" t="s">
         <v>376</v>
       </c>
@@ -14584,10 +14589,10 @@
       <c r="A65" s="75"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
-      <c r="D65" s="76" t="s">
+      <c r="D65" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="E65" s="77"/>
+      <c r="E65" s="76"/>
       <c r="F65" s="75" t="s">
         <v>378</v>
       </c>
@@ -14615,10 +14620,10 @@
       <c r="A66" s="75"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
-      <c r="D66" s="76" t="s">
+      <c r="D66" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="E66" s="77"/>
+      <c r="E66" s="76"/>
       <c r="F66" s="75" t="s">
         <v>380</v>
       </c>
@@ -14646,10 +14651,10 @@
       <c r="A67" s="75"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
-      <c r="D67" s="76" t="s">
+      <c r="D67" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="E67" s="77"/>
+      <c r="E67" s="76"/>
       <c r="F67" s="75" t="s">
         <v>382</v>
       </c>
@@ -14677,10 +14682,10 @@
       <c r="A68" s="75"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
-      <c r="D68" s="76" t="s">
+      <c r="D68" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="E68" s="77"/>
+      <c r="E68" s="76"/>
       <c r="F68" s="75" t="s">
         <v>384</v>
       </c>
@@ -14708,10 +14713,10 @@
       <c r="A69" s="75"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
-      <c r="D69" s="76" t="s">
+      <c r="D69" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="E69" s="77"/>
+      <c r="E69" s="76"/>
       <c r="F69" s="75" t="s">
         <v>386</v>
       </c>
@@ -14739,10 +14744,10 @@
       <c r="A70" s="75"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
-      <c r="D70" s="76" t="s">
+      <c r="D70" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="E70" s="77"/>
+      <c r="E70" s="76"/>
       <c r="F70" s="75" t="s">
         <v>388</v>
       </c>
@@ -14770,10 +14775,10 @@
       <c r="A71" s="75"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
-      <c r="D71" s="76" t="s">
+      <c r="D71" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="E71" s="77"/>
+      <c r="E71" s="76"/>
       <c r="F71" s="75" t="s">
         <v>390</v>
       </c>
@@ -14801,10 +14806,10 @@
       <c r="A72" s="75"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
-      <c r="D72" s="76" t="s">
+      <c r="D72" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="E72" s="77"/>
+      <c r="E72" s="76"/>
       <c r="F72" s="75" t="s">
         <v>392</v>
       </c>
@@ -14832,10 +14837,10 @@
       <c r="A73" s="75"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
-      <c r="D73" s="76" t="s">
+      <c r="D73" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="E73" s="77"/>
+      <c r="E73" s="76"/>
       <c r="F73" s="75" t="s">
         <v>394</v>
       </c>
@@ -14863,10 +14868,10 @@
       <c r="A74" s="75"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
-      <c r="D74" s="76" t="s">
+      <c r="D74" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="E74" s="77"/>
+      <c r="E74" s="76"/>
       <c r="F74" s="75" t="s">
         <v>396</v>
       </c>
@@ -14894,10 +14899,10 @@
       <c r="A75" s="75"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
-      <c r="D75" s="76" t="s">
+      <c r="D75" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="E75" s="77"/>
+      <c r="E75" s="76"/>
       <c r="F75" s="75" t="s">
         <v>398</v>
       </c>
@@ -14925,10 +14930,10 @@
       <c r="A76" s="75"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
-      <c r="D76" s="76" t="s">
+      <c r="D76" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="E76" s="77"/>
+      <c r="E76" s="76"/>
       <c r="F76" s="75" t="s">
         <v>400</v>
       </c>
@@ -14956,10 +14961,10 @@
       <c r="A77" s="75"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
-      <c r="D77" s="76" t="s">
+      <c r="D77" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="E77" s="77"/>
+      <c r="E77" s="76"/>
       <c r="F77" s="75" t="s">
         <v>402</v>
       </c>
@@ -14987,10 +14992,10 @@
       <c r="A78" s="75"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
-      <c r="D78" s="76" t="s">
+      <c r="D78" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="E78" s="77"/>
+      <c r="E78" s="76"/>
       <c r="F78" s="75" t="s">
         <v>404</v>
       </c>
@@ -15018,10 +15023,10 @@
       <c r="A79" s="75"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
-      <c r="D79" s="76" t="s">
+      <c r="D79" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="E79" s="77"/>
+      <c r="E79" s="76"/>
       <c r="F79" s="75" t="s">
         <v>406</v>
       </c>
@@ -15049,10 +15054,10 @@
       <c r="A80" s="75"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
-      <c r="D80" s="76" t="s">
+      <c r="D80" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="E80" s="77"/>
+      <c r="E80" s="76"/>
       <c r="F80" s="75" t="s">
         <v>408</v>
       </c>
@@ -15080,10 +15085,10 @@
       <c r="A81" s="75"/>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
-      <c r="D81" s="76" t="s">
+      <c r="D81" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="E81" s="77"/>
+      <c r="E81" s="76"/>
       <c r="F81" s="75" t="s">
         <v>410</v>
       </c>
@@ -15111,10 +15116,10 @@
       <c r="A82" s="75"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
-      <c r="D82" s="76" t="s">
+      <c r="D82" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="E82" s="77"/>
+      <c r="E82" s="76"/>
       <c r="F82" s="75" t="s">
         <v>412</v>
       </c>
@@ -15142,10 +15147,10 @@
       <c r="A83" s="75"/>
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
-      <c r="D83" s="76" t="s">
+      <c r="D83" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="E83" s="77"/>
+      <c r="E83" s="76"/>
       <c r="F83" s="75" t="s">
         <v>414</v>
       </c>
@@ -15173,10 +15178,10 @@
       <c r="A84" s="75"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
-      <c r="D84" s="76" t="s">
+      <c r="D84" s="77" t="s">
         <v>415</v>
       </c>
-      <c r="E84" s="77"/>
+      <c r="E84" s="76"/>
       <c r="F84" s="75" t="s">
         <v>416</v>
       </c>
@@ -15204,10 +15209,10 @@
       <c r="A85" s="75"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
-      <c r="D85" s="76" t="s">
+      <c r="D85" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="E85" s="77"/>
+      <c r="E85" s="76"/>
       <c r="F85" s="75" t="s">
         <v>418</v>
       </c>
@@ -15235,10 +15240,10 @@
       <c r="A86" s="75"/>
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
-      <c r="D86" s="76" t="s">
+      <c r="D86" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="E86" s="77"/>
+      <c r="E86" s="76"/>
       <c r="F86" s="75"/>
       <c r="G86" s="75"/>
       <c r="H86" s="75"/>
@@ -15264,10 +15269,10 @@
       <c r="A87" s="75"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
-      <c r="D87" s="76" t="s">
+      <c r="D87" s="77" t="s">
         <v>420</v>
       </c>
-      <c r="E87" s="77"/>
+      <c r="E87" s="76"/>
       <c r="F87" s="75"/>
       <c r="G87" s="75"/>
       <c r="H87" s="75"/>
@@ -15293,10 +15298,10 @@
       <c r="A88" s="75"/>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
-      <c r="D88" s="76" t="s">
+      <c r="D88" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="E88" s="77"/>
+      <c r="E88" s="76"/>
       <c r="F88" s="75"/>
       <c r="G88" s="75"/>
       <c r="H88" s="75"/>
@@ -15322,10 +15327,10 @@
       <c r="A89" s="75"/>
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
-      <c r="D89" s="76" t="s">
+      <c r="D89" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="E89" s="77"/>
+      <c r="E89" s="76"/>
       <c r="F89" s="75"/>
       <c r="G89" s="75"/>
       <c r="H89" s="75"/>
@@ -15351,10 +15356,10 @@
       <c r="A90" s="75"/>
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
-      <c r="D90" s="76" t="s">
+      <c r="D90" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="E90" s="77"/>
+      <c r="E90" s="76"/>
       <c r="F90" s="75"/>
       <c r="G90" s="75"/>
       <c r="H90" s="75"/>
@@ -15380,10 +15385,10 @@
       <c r="A91" s="75"/>
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
-      <c r="D91" s="76" t="s">
+      <c r="D91" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="E91" s="77"/>
+      <c r="E91" s="76"/>
       <c r="F91" s="75"/>
       <c r="G91" s="75"/>
       <c r="H91" s="75"/>
@@ -15409,10 +15414,10 @@
       <c r="A92" s="75"/>
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
-      <c r="D92" s="76" t="s">
+      <c r="D92" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="E92" s="77"/>
+      <c r="E92" s="76"/>
       <c r="F92" s="75"/>
       <c r="G92" s="75"/>
       <c r="H92" s="75"/>
@@ -15438,10 +15443,10 @@
       <c r="A93" s="75"/>
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
-      <c r="D93" s="76" t="s">
+      <c r="D93" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="E93" s="77"/>
+      <c r="E93" s="76"/>
       <c r="F93" s="75"/>
       <c r="G93" s="75"/>
       <c r="H93" s="75"/>
@@ -15467,10 +15472,10 @@
       <c r="A94" s="75"/>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
-      <c r="D94" s="76" t="s">
+      <c r="D94" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="E94" s="77"/>
+      <c r="E94" s="76"/>
       <c r="F94" s="75"/>
       <c r="G94" s="75"/>
       <c r="H94" s="75"/>
@@ -15496,10 +15501,10 @@
       <c r="A95" s="75"/>
       <c r="B95" s="75"/>
       <c r="C95" s="75"/>
-      <c r="D95" s="76" t="s">
+      <c r="D95" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="E95" s="77"/>
+      <c r="E95" s="76"/>
       <c r="F95" s="75"/>
       <c r="G95" s="75"/>
       <c r="H95" s="75"/>
@@ -15525,10 +15530,10 @@
       <c r="A96" s="75"/>
       <c r="B96" s="75"/>
       <c r="C96" s="75"/>
-      <c r="D96" s="76" t="s">
+      <c r="D96" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="E96" s="77"/>
+      <c r="E96" s="76"/>
       <c r="F96" s="75"/>
       <c r="G96" s="75"/>
       <c r="H96" s="75"/>
@@ -15554,10 +15559,10 @@
       <c r="A97" s="75"/>
       <c r="B97" s="75"/>
       <c r="C97" s="75"/>
-      <c r="D97" s="76" t="s">
+      <c r="D97" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="E97" s="77"/>
+      <c r="E97" s="76"/>
       <c r="F97" s="75"/>
       <c r="G97" s="75"/>
       <c r="H97" s="75"/>
@@ -15583,10 +15588,10 @@
       <c r="A98" s="75"/>
       <c r="B98" s="75"/>
       <c r="C98" s="75"/>
-      <c r="D98" s="76" t="s">
+      <c r="D98" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="E98" s="77"/>
+      <c r="E98" s="76"/>
       <c r="F98" s="75"/>
       <c r="G98" s="75"/>
       <c r="H98" s="75"/>
@@ -15612,10 +15617,10 @@
       <c r="A99" s="75"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
-      <c r="D99" s="76" t="s">
+      <c r="D99" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="E99" s="77"/>
+      <c r="E99" s="76"/>
       <c r="F99" s="75"/>
       <c r="G99" s="75"/>
       <c r="H99" s="75"/>
@@ -15641,10 +15646,10 @@
       <c r="A100" s="75"/>
       <c r="B100" s="75"/>
       <c r="C100" s="75"/>
-      <c r="D100" s="76" t="s">
+      <c r="D100" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="E100" s="77"/>
+      <c r="E100" s="76"/>
       <c r="F100" s="75"/>
       <c r="G100" s="75"/>
       <c r="H100" s="75"/>
@@ -15670,10 +15675,10 @@
       <c r="A101" s="75"/>
       <c r="B101" s="75"/>
       <c r="C101" s="75"/>
-      <c r="D101" s="76" t="s">
+      <c r="D101" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="E101" s="77"/>
+      <c r="E101" s="76"/>
       <c r="F101" s="75"/>
       <c r="G101" s="75"/>
       <c r="H101" s="75"/>
@@ -15699,10 +15704,10 @@
       <c r="A102" s="75"/>
       <c r="B102" s="75"/>
       <c r="C102" s="75"/>
-      <c r="D102" s="76" t="s">
+      <c r="D102" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="E102" s="77"/>
+      <c r="E102" s="76"/>
       <c r="F102" s="75"/>
       <c r="G102" s="75"/>
       <c r="H102" s="75"/>
@@ -15728,10 +15733,10 @@
       <c r="A103" s="75"/>
       <c r="B103" s="75"/>
       <c r="C103" s="75"/>
-      <c r="D103" s="76" t="s">
+      <c r="D103" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="E103" s="77"/>
+      <c r="E103" s="76"/>
       <c r="F103" s="75"/>
       <c r="G103" s="75"/>
       <c r="H103" s="75"/>
@@ -15757,10 +15762,10 @@
       <c r="A104" s="75"/>
       <c r="B104" s="75"/>
       <c r="C104" s="75"/>
-      <c r="D104" s="76" t="s">
+      <c r="D104" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="E104" s="77"/>
+      <c r="E104" s="76"/>
       <c r="F104" s="75"/>
       <c r="G104" s="75"/>
       <c r="H104" s="75"/>
@@ -15786,10 +15791,10 @@
       <c r="A105" s="75"/>
       <c r="B105" s="75"/>
       <c r="C105" s="75"/>
-      <c r="D105" s="76" t="s">
+      <c r="D105" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="E105" s="77"/>
+      <c r="E105" s="76"/>
       <c r="F105" s="75"/>
       <c r="G105" s="75"/>
       <c r="H105" s="75"/>
@@ -15815,10 +15820,10 @@
       <c r="A106" s="75"/>
       <c r="B106" s="75"/>
       <c r="C106" s="75"/>
-      <c r="D106" s="76" t="s">
+      <c r="D106" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="E106" s="77"/>
+      <c r="E106" s="76"/>
       <c r="F106" s="75"/>
       <c r="G106" s="75"/>
       <c r="H106" s="75"/>
@@ -15844,10 +15849,10 @@
       <c r="A107" s="75"/>
       <c r="B107" s="75"/>
       <c r="C107" s="75"/>
-      <c r="D107" s="76" t="s">
+      <c r="D107" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="E107" s="77"/>
+      <c r="E107" s="76"/>
       <c r="F107" s="75"/>
       <c r="G107" s="75"/>
       <c r="H107" s="75"/>
@@ -15873,10 +15878,10 @@
       <c r="A108" s="75"/>
       <c r="B108" s="75"/>
       <c r="C108" s="75"/>
-      <c r="D108" s="76" t="s">
+      <c r="D108" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="E108" s="77"/>
+      <c r="E108" s="76"/>
       <c r="F108" s="75"/>
       <c r="G108" s="75"/>
       <c r="H108" s="75"/>
@@ -15902,10 +15907,10 @@
       <c r="A109" s="75"/>
       <c r="B109" s="75"/>
       <c r="C109" s="75"/>
-      <c r="D109" s="76" t="s">
+      <c r="D109" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="E109" s="77"/>
+      <c r="E109" s="76"/>
       <c r="F109" s="75"/>
       <c r="G109" s="75"/>
       <c r="H109" s="75"/>
@@ -15931,10 +15936,10 @@
       <c r="A110" s="75"/>
       <c r="B110" s="75"/>
       <c r="C110" s="75"/>
-      <c r="D110" s="76" t="s">
+      <c r="D110" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="E110" s="77"/>
+      <c r="E110" s="76"/>
       <c r="F110" s="75"/>
       <c r="G110" s="75"/>
       <c r="H110" s="75"/>
@@ -15960,10 +15965,10 @@
       <c r="A111" s="75"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
-      <c r="D111" s="76" t="s">
+      <c r="D111" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="E111" s="77"/>
+      <c r="E111" s="76"/>
       <c r="F111" s="75"/>
       <c r="G111" s="75"/>
       <c r="H111" s="75"/>
@@ -15989,10 +15994,10 @@
       <c r="A112" s="75"/>
       <c r="B112" s="75"/>
       <c r="C112" s="75"/>
-      <c r="D112" s="76" t="s">
+      <c r="D112" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="E112" s="77"/>
+      <c r="E112" s="76"/>
       <c r="F112" s="75"/>
       <c r="G112" s="75"/>
       <c r="H112" s="75"/>
@@ -16018,10 +16023,10 @@
       <c r="A113" s="75"/>
       <c r="B113" s="75"/>
       <c r="C113" s="75"/>
-      <c r="D113" s="76" t="s">
+      <c r="D113" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="E113" s="77"/>
+      <c r="E113" s="76"/>
       <c r="F113" s="75"/>
       <c r="G113" s="75"/>
       <c r="H113" s="75"/>
@@ -16047,10 +16052,10 @@
       <c r="A114" s="75"/>
       <c r="B114" s="75"/>
       <c r="C114" s="75"/>
-      <c r="D114" s="76" t="s">
+      <c r="D114" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="E114" s="77"/>
+      <c r="E114" s="76"/>
       <c r="F114" s="75"/>
       <c r="G114" s="75"/>
       <c r="H114" s="75"/>
@@ -16076,10 +16081,10 @@
       <c r="A115" s="75"/>
       <c r="B115" s="75"/>
       <c r="C115" s="75"/>
-      <c r="D115" s="76" t="s">
+      <c r="D115" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="E115" s="77"/>
+      <c r="E115" s="76"/>
       <c r="F115" s="75"/>
       <c r="G115" s="75"/>
       <c r="H115" s="75"/>
@@ -16105,10 +16110,10 @@
       <c r="A116" s="75"/>
       <c r="B116" s="75"/>
       <c r="C116" s="75"/>
-      <c r="D116" s="76" t="s">
+      <c r="D116" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="E116" s="77"/>
+      <c r="E116" s="76"/>
       <c r="F116" s="75"/>
       <c r="G116" s="75"/>
       <c r="H116" s="75"/>
@@ -16134,10 +16139,10 @@
       <c r="A117" s="75"/>
       <c r="B117" s="75"/>
       <c r="C117" s="75"/>
-      <c r="D117" s="76" t="s">
+      <c r="D117" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="E117" s="77"/>
+      <c r="E117" s="76"/>
       <c r="F117" s="75"/>
       <c r="G117" s="75"/>
       <c r="H117" s="75"/>
@@ -16163,10 +16168,10 @@
       <c r="A118" s="75"/>
       <c r="B118" s="75"/>
       <c r="C118" s="75"/>
-      <c r="D118" s="76" t="s">
+      <c r="D118" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="E118" s="77"/>
+      <c r="E118" s="76"/>
       <c r="F118" s="75"/>
       <c r="G118" s="75"/>
       <c r="H118" s="75"/>
@@ -16192,10 +16197,10 @@
       <c r="A119" s="75"/>
       <c r="B119" s="75"/>
       <c r="C119" s="75"/>
-      <c r="D119" s="76" t="s">
+      <c r="D119" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="E119" s="77"/>
+      <c r="E119" s="76"/>
       <c r="F119" s="75"/>
       <c r="G119" s="75"/>
       <c r="H119" s="75"/>
@@ -16221,10 +16226,10 @@
       <c r="A120" s="75"/>
       <c r="B120" s="75"/>
       <c r="C120" s="75"/>
-      <c r="D120" s="76" t="s">
+      <c r="D120" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="E120" s="77"/>
+      <c r="E120" s="76"/>
       <c r="F120" s="75"/>
       <c r="G120" s="75"/>
       <c r="H120" s="75"/>
@@ -16250,10 +16255,10 @@
       <c r="A121" s="75"/>
       <c r="B121" s="75"/>
       <c r="C121" s="75"/>
-      <c r="D121" s="76" t="s">
+      <c r="D121" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="E121" s="77"/>
+      <c r="E121" s="76"/>
       <c r="F121" s="75"/>
       <c r="G121" s="75"/>
       <c r="H121" s="75"/>
@@ -16279,10 +16284,10 @@
       <c r="A122" s="75"/>
       <c r="B122" s="75"/>
       <c r="C122" s="75"/>
-      <c r="D122" s="76" t="s">
+      <c r="D122" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="E122" s="77"/>
+      <c r="E122" s="76"/>
       <c r="F122" s="75"/>
       <c r="G122" s="75"/>
       <c r="H122" s="75"/>
@@ -16308,10 +16313,10 @@
       <c r="A123" s="75"/>
       <c r="B123" s="75"/>
       <c r="C123" s="75"/>
-      <c r="D123" s="76" t="s">
+      <c r="D123" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="E123" s="77"/>
+      <c r="E123" s="76"/>
       <c r="F123" s="75"/>
       <c r="G123" s="75"/>
       <c r="H123" s="75"/>
@@ -16337,10 +16342,10 @@
       <c r="A124" s="75"/>
       <c r="B124" s="75"/>
       <c r="C124" s="75"/>
-      <c r="D124" s="76" t="s">
+      <c r="D124" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="E124" s="77"/>
+      <c r="E124" s="76"/>
       <c r="F124" s="75"/>
       <c r="G124" s="75"/>
       <c r="H124" s="75"/>
@@ -16366,10 +16371,10 @@
       <c r="A125" s="75"/>
       <c r="B125" s="75"/>
       <c r="C125" s="75"/>
-      <c r="D125" s="76" t="s">
+      <c r="D125" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="E125" s="77"/>
+      <c r="E125" s="76"/>
       <c r="F125" s="75"/>
       <c r="G125" s="75"/>
       <c r="H125" s="75"/>
@@ -16395,10 +16400,10 @@
       <c r="A126" s="75"/>
       <c r="B126" s="75"/>
       <c r="C126" s="75"/>
-      <c r="D126" s="76" t="s">
+      <c r="D126" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="E126" s="77"/>
+      <c r="E126" s="76"/>
       <c r="F126" s="75"/>
       <c r="G126" s="75"/>
       <c r="H126" s="75"/>
@@ -16424,10 +16429,10 @@
       <c r="A127" s="75"/>
       <c r="B127" s="75"/>
       <c r="C127" s="75"/>
-      <c r="D127" s="76" t="s">
+      <c r="D127" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="E127" s="77"/>
+      <c r="E127" s="76"/>
       <c r="F127" s="75"/>
       <c r="G127" s="75"/>
       <c r="H127" s="75"/>
@@ -16453,10 +16458,10 @@
       <c r="A128" s="75"/>
       <c r="B128" s="75"/>
       <c r="C128" s="75"/>
-      <c r="D128" s="76" t="s">
+      <c r="D128" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="E128" s="77"/>
+      <c r="E128" s="76"/>
       <c r="F128" s="75"/>
       <c r="G128" s="75"/>
       <c r="H128" s="75"/>
@@ -16482,10 +16487,10 @@
       <c r="A129" s="75"/>
       <c r="B129" s="75"/>
       <c r="C129" s="75"/>
-      <c r="D129" s="76" t="s">
+      <c r="D129" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="E129" s="77"/>
+      <c r="E129" s="76"/>
       <c r="F129" s="75"/>
       <c r="G129" s="75"/>
       <c r="H129" s="75"/>
@@ -16511,10 +16516,10 @@
       <c r="A130" s="75"/>
       <c r="B130" s="75"/>
       <c r="C130" s="75"/>
-      <c r="D130" s="76" t="s">
+      <c r="D130" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="E130" s="77"/>
+      <c r="E130" s="76"/>
       <c r="F130" s="75"/>
       <c r="G130" s="75"/>
       <c r="H130" s="75"/>
@@ -16540,10 +16545,10 @@
       <c r="A131" s="75"/>
       <c r="B131" s="75"/>
       <c r="C131" s="75"/>
-      <c r="D131" s="76" t="s">
+      <c r="D131" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="E131" s="77"/>
+      <c r="E131" s="76"/>
       <c r="F131" s="75"/>
       <c r="G131" s="75"/>
       <c r="H131" s="75"/>
@@ -16569,10 +16574,10 @@
       <c r="A132" s="75"/>
       <c r="B132" s="75"/>
       <c r="C132" s="75"/>
-      <c r="D132" s="76" t="s">
+      <c r="D132" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="E132" s="77"/>
+      <c r="E132" s="76"/>
       <c r="F132" s="75"/>
       <c r="G132" s="75"/>
       <c r="H132" s="75"/>
@@ -16598,10 +16603,10 @@
       <c r="A133" s="75"/>
       <c r="B133" s="75"/>
       <c r="C133" s="75"/>
-      <c r="D133" s="76" t="s">
+      <c r="D133" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="E133" s="77"/>
+      <c r="E133" s="76"/>
       <c r="F133" s="75"/>
       <c r="G133" s="75"/>
       <c r="H133" s="75"/>
@@ -16627,10 +16632,10 @@
       <c r="A134" s="75"/>
       <c r="B134" s="75"/>
       <c r="C134" s="75"/>
-      <c r="D134" s="76" t="s">
+      <c r="D134" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="E134" s="77"/>
+      <c r="E134" s="76"/>
       <c r="F134" s="75"/>
       <c r="G134" s="75"/>
       <c r="H134" s="75"/>
@@ -16656,10 +16661,10 @@
       <c r="A135" s="75"/>
       <c r="B135" s="75"/>
       <c r="C135" s="75"/>
-      <c r="D135" s="76" t="s">
+      <c r="D135" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="E135" s="77"/>
+      <c r="E135" s="76"/>
       <c r="F135" s="75"/>
       <c r="G135" s="75"/>
       <c r="H135" s="75"/>
@@ -16685,10 +16690,10 @@
       <c r="A136" s="75"/>
       <c r="B136" s="75"/>
       <c r="C136" s="75"/>
-      <c r="D136" s="76" t="s">
+      <c r="D136" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="E136" s="77"/>
+      <c r="E136" s="76"/>
       <c r="F136" s="75"/>
       <c r="G136" s="75"/>
       <c r="H136" s="75"/>
@@ -16714,10 +16719,10 @@
       <c r="A137" s="75"/>
       <c r="B137" s="75"/>
       <c r="C137" s="75"/>
-      <c r="D137" s="76" t="s">
+      <c r="D137" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="E137" s="77"/>
+      <c r="E137" s="76"/>
       <c r="F137" s="75"/>
       <c r="G137" s="75"/>
       <c r="H137" s="75"/>
@@ -16743,10 +16748,10 @@
       <c r="A138" s="75"/>
       <c r="B138" s="75"/>
       <c r="C138" s="75"/>
-      <c r="D138" s="76" t="s">
+      <c r="D138" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="E138" s="77"/>
+      <c r="E138" s="76"/>
       <c r="F138" s="75"/>
       <c r="G138" s="75"/>
       <c r="H138" s="75"/>
@@ -16772,10 +16777,10 @@
       <c r="A139" s="75"/>
       <c r="B139" s="75"/>
       <c r="C139" s="75"/>
-      <c r="D139" s="76" t="s">
+      <c r="D139" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="E139" s="77"/>
+      <c r="E139" s="76"/>
       <c r="F139" s="75"/>
       <c r="G139" s="75"/>
       <c r="H139" s="75"/>
@@ -16801,10 +16806,10 @@
       <c r="A140" s="75"/>
       <c r="B140" s="75"/>
       <c r="C140" s="75"/>
-      <c r="D140" s="76" t="s">
+      <c r="D140" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="E140" s="77"/>
+      <c r="E140" s="76"/>
       <c r="F140" s="75"/>
       <c r="G140" s="75"/>
       <c r="H140" s="75"/>
@@ -16830,10 +16835,10 @@
       <c r="A141" s="75"/>
       <c r="B141" s="75"/>
       <c r="C141" s="75"/>
-      <c r="D141" s="76" t="s">
+      <c r="D141" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="E141" s="77"/>
+      <c r="E141" s="76"/>
       <c r="F141" s="75"/>
       <c r="G141" s="75"/>
       <c r="H141" s="75"/>
@@ -16859,10 +16864,10 @@
       <c r="A142" s="75"/>
       <c r="B142" s="75"/>
       <c r="C142" s="75"/>
-      <c r="D142" s="76" t="s">
+      <c r="D142" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="E142" s="77"/>
+      <c r="E142" s="76"/>
       <c r="F142" s="75"/>
       <c r="G142" s="75"/>
       <c r="H142" s="75"/>
@@ -16888,10 +16893,10 @@
       <c r="A143" s="75"/>
       <c r="B143" s="75"/>
       <c r="C143" s="75"/>
-      <c r="D143" s="76" t="s">
+      <c r="D143" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="E143" s="77"/>
+      <c r="E143" s="76"/>
       <c r="F143" s="75"/>
       <c r="G143" s="75"/>
       <c r="H143" s="75"/>
@@ -16917,10 +16922,10 @@
       <c r="A144" s="75"/>
       <c r="B144" s="75"/>
       <c r="C144" s="75"/>
-      <c r="D144" s="76" t="s">
+      <c r="D144" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="E144" s="77"/>
+      <c r="E144" s="76"/>
       <c r="F144" s="75"/>
       <c r="G144" s="75"/>
       <c r="H144" s="75"/>
@@ -16946,10 +16951,10 @@
       <c r="A145" s="75"/>
       <c r="B145" s="75"/>
       <c r="C145" s="75"/>
-      <c r="D145" s="76" t="s">
+      <c r="D145" s="77" t="s">
         <v>478</v>
       </c>
-      <c r="E145" s="77"/>
+      <c r="E145" s="76"/>
       <c r="F145" s="75"/>
       <c r="G145" s="75"/>
       <c r="H145" s="75"/>
@@ -16975,10 +16980,10 @@
       <c r="A146" s="75"/>
       <c r="B146" s="75"/>
       <c r="C146" s="75"/>
-      <c r="D146" s="76" t="s">
+      <c r="D146" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="E146" s="77"/>
+      <c r="E146" s="76"/>
       <c r="F146" s="75"/>
       <c r="G146" s="75"/>
       <c r="H146" s="75"/>
@@ -17004,10 +17009,10 @@
       <c r="A147" s="75"/>
       <c r="B147" s="75"/>
       <c r="C147" s="75"/>
-      <c r="D147" s="76" t="s">
+      <c r="D147" s="27" t="s">
         <v>480</v>
       </c>
-      <c r="E147" s="77"/>
+      <c r="E147" s="76"/>
       <c r="F147" s="75"/>
       <c r="G147" s="75"/>
       <c r="H147" s="75"/>
@@ -17033,10 +17038,10 @@
       <c r="A148" s="75"/>
       <c r="B148" s="75"/>
       <c r="C148" s="75"/>
-      <c r="D148" s="76" t="s">
+      <c r="D148" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="E148" s="77"/>
+      <c r="E148" s="76"/>
       <c r="F148" s="75"/>
       <c r="G148" s="75"/>
       <c r="H148" s="75"/>
@@ -17062,10 +17067,10 @@
       <c r="A149" s="75"/>
       <c r="B149" s="75"/>
       <c r="C149" s="75"/>
-      <c r="D149" s="76" t="s">
+      <c r="D149" s="27" t="s">
         <v>482</v>
       </c>
-      <c r="E149" s="77"/>
+      <c r="E149" s="76"/>
       <c r="F149" s="75"/>
       <c r="G149" s="75"/>
       <c r="H149" s="75"/>
@@ -17091,10 +17096,10 @@
       <c r="A150" s="75"/>
       <c r="B150" s="75"/>
       <c r="C150" s="75"/>
-      <c r="D150" s="76" t="s">
+      <c r="D150" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="E150" s="77"/>
+      <c r="E150" s="76"/>
       <c r="F150" s="75"/>
       <c r="G150" s="75"/>
       <c r="H150" s="75"/>
@@ -17120,10 +17125,10 @@
       <c r="A151" s="75"/>
       <c r="B151" s="75"/>
       <c r="C151" s="75"/>
-      <c r="D151" s="76" t="s">
+      <c r="D151" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="E151" s="77"/>
+      <c r="E151" s="76"/>
       <c r="F151" s="75"/>
       <c r="G151" s="75"/>
       <c r="H151" s="75"/>
@@ -17149,10 +17154,10 @@
       <c r="A152" s="75"/>
       <c r="B152" s="75"/>
       <c r="C152" s="75"/>
-      <c r="D152" s="76" t="s">
+      <c r="D152" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="E152" s="77"/>
+      <c r="E152" s="76"/>
       <c r="F152" s="75"/>
       <c r="G152" s="75"/>
       <c r="H152" s="75"/>
@@ -17178,10 +17183,10 @@
       <c r="A153" s="75"/>
       <c r="B153" s="75"/>
       <c r="C153" s="75"/>
-      <c r="D153" s="76" t="s">
+      <c r="D153" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="E153" s="77"/>
+      <c r="E153" s="76"/>
       <c r="F153" s="75"/>
       <c r="G153" s="75"/>
       <c r="H153" s="75"/>
@@ -17207,10 +17212,10 @@
       <c r="A154" s="75"/>
       <c r="B154" s="75"/>
       <c r="C154" s="75"/>
-      <c r="D154" s="76" t="s">
+      <c r="D154" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="E154" s="77"/>
+      <c r="E154" s="76"/>
       <c r="F154" s="75"/>
       <c r="G154" s="75"/>
       <c r="H154" s="75"/>
@@ -17236,10 +17241,10 @@
       <c r="A155" s="75"/>
       <c r="B155" s="75"/>
       <c r="C155" s="75"/>
-      <c r="D155" s="76" t="s">
+      <c r="D155" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="E155" s="77"/>
+      <c r="E155" s="76"/>
       <c r="F155" s="75"/>
       <c r="G155" s="75"/>
       <c r="H155" s="75"/>
@@ -17265,10 +17270,10 @@
       <c r="A156" s="75"/>
       <c r="B156" s="75"/>
       <c r="C156" s="75"/>
-      <c r="D156" s="76" t="s">
+      <c r="D156" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="E156" s="77"/>
+      <c r="E156" s="76"/>
       <c r="F156" s="75"/>
       <c r="G156" s="75"/>
       <c r="H156" s="75"/>
@@ -17294,10 +17299,10 @@
       <c r="A157" s="75"/>
       <c r="B157" s="75"/>
       <c r="C157" s="75"/>
-      <c r="D157" s="76" t="s">
+      <c r="D157" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="E157" s="77"/>
+      <c r="E157" s="76"/>
       <c r="F157" s="75"/>
       <c r="G157" s="75"/>
       <c r="H157" s="75"/>
@@ -17323,10 +17328,10 @@
       <c r="A158" s="75"/>
       <c r="B158" s="75"/>
       <c r="C158" s="75"/>
-      <c r="D158" s="76" t="s">
+      <c r="D158" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="E158" s="77"/>
+      <c r="E158" s="76"/>
       <c r="F158" s="75"/>
       <c r="G158" s="75"/>
       <c r="H158" s="75"/>
@@ -17352,10 +17357,10 @@
       <c r="A159" s="75"/>
       <c r="B159" s="75"/>
       <c r="C159" s="75"/>
-      <c r="D159" s="76" t="s">
+      <c r="D159" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="E159" s="77"/>
+      <c r="E159" s="76"/>
       <c r="F159" s="75"/>
       <c r="G159" s="75"/>
       <c r="H159" s="75"/>
@@ -17381,10 +17386,10 @@
       <c r="A160" s="75"/>
       <c r="B160" s="75"/>
       <c r="C160" s="75"/>
-      <c r="D160" s="76" t="s">
+      <c r="D160" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="E160" s="77"/>
+      <c r="E160" s="76"/>
       <c r="F160" s="75"/>
       <c r="G160" s="75"/>
       <c r="H160" s="75"/>
@@ -17410,10 +17415,10 @@
       <c r="A161" s="75"/>
       <c r="B161" s="75"/>
       <c r="C161" s="75"/>
-      <c r="D161" s="76" t="s">
+      <c r="D161" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="E161" s="77"/>
+      <c r="E161" s="76"/>
       <c r="F161" s="75"/>
       <c r="G161" s="75"/>
       <c r="H161" s="75"/>
@@ -17439,10 +17444,10 @@
       <c r="A162" s="75"/>
       <c r="B162" s="75"/>
       <c r="C162" s="75"/>
-      <c r="D162" s="76" t="s">
+      <c r="D162" s="27" t="s">
         <v>495</v>
       </c>
-      <c r="E162" s="77"/>
+      <c r="E162" s="76"/>
       <c r="F162" s="75"/>
       <c r="G162" s="75"/>
       <c r="H162" s="75"/>
@@ -17468,10 +17473,10 @@
       <c r="A163" s="75"/>
       <c r="B163" s="75"/>
       <c r="C163" s="75"/>
-      <c r="D163" s="76" t="s">
+      <c r="D163" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="E163" s="77"/>
+      <c r="E163" s="76"/>
       <c r="F163" s="75"/>
       <c r="G163" s="75"/>
       <c r="H163" s="75"/>
@@ -17497,10 +17502,10 @@
       <c r="A164" s="75"/>
       <c r="B164" s="75"/>
       <c r="C164" s="75"/>
-      <c r="D164" s="76" t="s">
+      <c r="D164" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="E164" s="77"/>
+      <c r="E164" s="76"/>
       <c r="F164" s="75"/>
       <c r="G164" s="75"/>
       <c r="H164" s="75"/>
@@ -17526,10 +17531,10 @@
       <c r="A165" s="75"/>
       <c r="B165" s="75"/>
       <c r="C165" s="75"/>
-      <c r="D165" s="76" t="s">
+      <c r="D165" s="27" t="s">
         <v>498</v>
       </c>
-      <c r="E165" s="77"/>
+      <c r="E165" s="76"/>
       <c r="F165" s="75"/>
       <c r="G165" s="75"/>
       <c r="H165" s="75"/>
@@ -17555,10 +17560,10 @@
       <c r="A166" s="75"/>
       <c r="B166" s="75"/>
       <c r="C166" s="75"/>
-      <c r="D166" s="76" t="s">
+      <c r="D166" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="E166" s="77"/>
+      <c r="E166" s="76"/>
       <c r="F166" s="75"/>
       <c r="G166" s="75"/>
       <c r="H166" s="75"/>
@@ -17584,10 +17589,10 @@
       <c r="A167" s="75"/>
       <c r="B167" s="75"/>
       <c r="C167" s="75"/>
-      <c r="D167" s="76" t="s">
+      <c r="D167" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="E167" s="77"/>
+      <c r="E167" s="76"/>
       <c r="F167" s="75"/>
       <c r="G167" s="75"/>
       <c r="H167" s="75"/>
@@ -17613,10 +17618,10 @@
       <c r="A168" s="75"/>
       <c r="B168" s="75"/>
       <c r="C168" s="75"/>
-      <c r="D168" s="76" t="s">
+      <c r="D168" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="E168" s="77"/>
+      <c r="E168" s="76"/>
       <c r="F168" s="75"/>
       <c r="G168" s="75"/>
       <c r="H168" s="75"/>
@@ -17642,10 +17647,10 @@
       <c r="A169" s="75"/>
       <c r="B169" s="75"/>
       <c r="C169" s="75"/>
-      <c r="D169" s="76" t="s">
+      <c r="D169" s="27" t="s">
         <v>502</v>
       </c>
-      <c r="E169" s="77"/>
+      <c r="E169" s="76"/>
       <c r="F169" s="75"/>
       <c r="G169" s="75"/>
       <c r="H169" s="75"/>
@@ -17671,10 +17676,10 @@
       <c r="A170" s="75"/>
       <c r="B170" s="75"/>
       <c r="C170" s="75"/>
-      <c r="D170" s="76" t="s">
+      <c r="D170" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="E170" s="77"/>
+      <c r="E170" s="76"/>
       <c r="F170" s="75"/>
       <c r="G170" s="75"/>
       <c r="H170" s="75"/>
@@ -17700,10 +17705,10 @@
       <c r="A171" s="75"/>
       <c r="B171" s="75"/>
       <c r="C171" s="75"/>
-      <c r="D171" s="76" t="s">
+      <c r="D171" s="27" t="s">
         <v>504</v>
       </c>
-      <c r="E171" s="77"/>
+      <c r="E171" s="76"/>
       <c r="F171" s="75"/>
       <c r="G171" s="75"/>
       <c r="H171" s="75"/>
@@ -17729,10 +17734,10 @@
       <c r="A172" s="75"/>
       <c r="B172" s="75"/>
       <c r="C172" s="75"/>
-      <c r="D172" s="76" t="s">
+      <c r="D172" s="27" t="s">
         <v>505</v>
       </c>
-      <c r="E172" s="77"/>
+      <c r="E172" s="76"/>
       <c r="F172" s="75"/>
       <c r="G172" s="75"/>
       <c r="H172" s="75"/>
@@ -17758,10 +17763,10 @@
       <c r="A173" s="75"/>
       <c r="B173" s="75"/>
       <c r="C173" s="75"/>
-      <c r="D173" s="76" t="s">
+      <c r="D173" s="27" t="s">
         <v>506</v>
       </c>
-      <c r="E173" s="77"/>
+      <c r="E173" s="76"/>
       <c r="F173" s="75"/>
       <c r="G173" s="75"/>
       <c r="H173" s="75"/>
@@ -17787,10 +17792,10 @@
       <c r="A174" s="75"/>
       <c r="B174" s="75"/>
       <c r="C174" s="75"/>
-      <c r="D174" s="76" t="s">
+      <c r="D174" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="E174" s="77"/>
+      <c r="E174" s="76"/>
       <c r="F174" s="75"/>
       <c r="G174" s="75"/>
       <c r="H174" s="75"/>
@@ -17816,10 +17821,10 @@
       <c r="A175" s="75"/>
       <c r="B175" s="75"/>
       <c r="C175" s="75"/>
-      <c r="D175" s="76" t="s">
+      <c r="D175" s="27" t="s">
         <v>508</v>
       </c>
-      <c r="E175" s="77"/>
+      <c r="E175" s="76"/>
       <c r="F175" s="75"/>
       <c r="G175" s="75"/>
       <c r="H175" s="75"/>
@@ -17845,10 +17850,10 @@
       <c r="A176" s="75"/>
       <c r="B176" s="75"/>
       <c r="C176" s="75"/>
-      <c r="D176" s="76" t="s">
+      <c r="D176" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="E176" s="77"/>
+      <c r="E176" s="76"/>
       <c r="F176" s="75"/>
       <c r="G176" s="75"/>
       <c r="H176" s="75"/>
@@ -17874,10 +17879,10 @@
       <c r="A177" s="75"/>
       <c r="B177" s="75"/>
       <c r="C177" s="75"/>
-      <c r="D177" s="76" t="s">
+      <c r="D177" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="E177" s="77"/>
+      <c r="E177" s="76"/>
       <c r="F177" s="75"/>
       <c r="G177" s="75"/>
       <c r="H177" s="75"/>
@@ -17903,10 +17908,10 @@
       <c r="A178" s="75"/>
       <c r="B178" s="75"/>
       <c r="C178" s="75"/>
-      <c r="D178" s="76" t="s">
+      <c r="D178" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="E178" s="77"/>
+      <c r="E178" s="76"/>
       <c r="F178" s="75"/>
       <c r="G178" s="75"/>
       <c r="H178" s="75"/>
@@ -17932,10 +17937,10 @@
       <c r="A179" s="75"/>
       <c r="B179" s="75"/>
       <c r="C179" s="75"/>
-      <c r="D179" s="76" t="s">
+      <c r="D179" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="E179" s="77"/>
+      <c r="E179" s="76"/>
       <c r="F179" s="75"/>
       <c r="G179" s="75"/>
       <c r="H179" s="75"/>
@@ -17961,10 +17966,10 @@
       <c r="A180" s="75"/>
       <c r="B180" s="75"/>
       <c r="C180" s="75"/>
-      <c r="D180" s="76" t="s">
+      <c r="D180" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="E180" s="77"/>
+      <c r="E180" s="76"/>
       <c r="F180" s="75"/>
       <c r="G180" s="75"/>
       <c r="H180" s="75"/>
@@ -17990,10 +17995,10 @@
       <c r="A181" s="75"/>
       <c r="B181" s="75"/>
       <c r="C181" s="75"/>
-      <c r="D181" s="76" t="s">
+      <c r="D181" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="E181" s="77"/>
+      <c r="E181" s="76"/>
       <c r="F181" s="75"/>
       <c r="G181" s="75"/>
       <c r="H181" s="75"/>
@@ -18019,10 +18024,10 @@
       <c r="A182" s="75"/>
       <c r="B182" s="75"/>
       <c r="C182" s="75"/>
-      <c r="D182" s="76" t="s">
+      <c r="D182" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="E182" s="77"/>
+      <c r="E182" s="76"/>
       <c r="F182" s="75"/>
       <c r="G182" s="75"/>
       <c r="H182" s="75"/>
@@ -18048,10 +18053,10 @@
       <c r="A183" s="75"/>
       <c r="B183" s="75"/>
       <c r="C183" s="75"/>
-      <c r="D183" s="76" t="s">
+      <c r="D183" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="E183" s="77"/>
+      <c r="E183" s="76"/>
       <c r="F183" s="75"/>
       <c r="G183" s="75"/>
       <c r="H183" s="75"/>
@@ -18077,10 +18082,10 @@
       <c r="A184" s="75"/>
       <c r="B184" s="75"/>
       <c r="C184" s="75"/>
-      <c r="D184" s="76" t="s">
+      <c r="D184" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="E184" s="77"/>
+      <c r="E184" s="76"/>
       <c r="F184" s="75"/>
       <c r="G184" s="75"/>
       <c r="H184" s="75"/>
@@ -18106,10 +18111,10 @@
       <c r="A185" s="75"/>
       <c r="B185" s="75"/>
       <c r="C185" s="75"/>
-      <c r="D185" s="76" t="s">
+      <c r="D185" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="E185" s="77"/>
+      <c r="E185" s="76"/>
       <c r="F185" s="75"/>
       <c r="G185" s="75"/>
       <c r="H185" s="75"/>
@@ -18135,10 +18140,10 @@
       <c r="A186" s="75"/>
       <c r="B186" s="75"/>
       <c r="C186" s="75"/>
-      <c r="D186" s="76" t="s">
+      <c r="D186" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="E186" s="77"/>
+      <c r="E186" s="76"/>
       <c r="F186" s="75"/>
       <c r="G186" s="75"/>
       <c r="H186" s="75"/>
@@ -18164,10 +18169,10 @@
       <c r="A187" s="75"/>
       <c r="B187" s="75"/>
       <c r="C187" s="75"/>
-      <c r="D187" s="76" t="s">
+      <c r="D187" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="E187" s="77"/>
+      <c r="E187" s="76"/>
       <c r="F187" s="75"/>
       <c r="G187" s="75"/>
       <c r="H187" s="75"/>
@@ -18193,10 +18198,10 @@
       <c r="A188" s="75"/>
       <c r="B188" s="75"/>
       <c r="C188" s="75"/>
-      <c r="D188" s="76" t="s">
+      <c r="D188" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="E188" s="77"/>
+      <c r="E188" s="76"/>
       <c r="F188" s="75"/>
       <c r="G188" s="75"/>
       <c r="H188" s="75"/>
@@ -18222,10 +18227,10 @@
       <c r="A189" s="75"/>
       <c r="B189" s="75"/>
       <c r="C189" s="75"/>
-      <c r="D189" s="76" t="s">
+      <c r="D189" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="E189" s="77"/>
+      <c r="E189" s="76"/>
       <c r="F189" s="75"/>
       <c r="G189" s="75"/>
       <c r="H189" s="75"/>
@@ -18251,10 +18256,10 @@
       <c r="A190" s="75"/>
       <c r="B190" s="75"/>
       <c r="C190" s="75"/>
-      <c r="D190" s="76" t="s">
+      <c r="D190" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="E190" s="77"/>
+      <c r="E190" s="76"/>
       <c r="F190" s="75"/>
       <c r="G190" s="75"/>
       <c r="H190" s="75"/>
@@ -18280,10 +18285,10 @@
       <c r="A191" s="75"/>
       <c r="B191" s="75"/>
       <c r="C191" s="75"/>
-      <c r="D191" s="76" t="s">
+      <c r="D191" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="E191" s="77"/>
+      <c r="E191" s="76"/>
       <c r="F191" s="75"/>
       <c r="G191" s="75"/>
       <c r="H191" s="75"/>
@@ -18309,10 +18314,10 @@
       <c r="A192" s="75"/>
       <c r="B192" s="75"/>
       <c r="C192" s="75"/>
-      <c r="D192" s="76" t="s">
+      <c r="D192" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="E192" s="77"/>
+      <c r="E192" s="76"/>
       <c r="F192" s="75"/>
       <c r="G192" s="75"/>
       <c r="H192" s="75"/>
@@ -18338,10 +18343,10 @@
       <c r="A193" s="75"/>
       <c r="B193" s="75"/>
       <c r="C193" s="75"/>
-      <c r="D193" s="76" t="s">
+      <c r="D193" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="E193" s="77"/>
+      <c r="E193" s="76"/>
       <c r="F193" s="75"/>
       <c r="G193" s="75"/>
       <c r="H193" s="75"/>
@@ -18367,10 +18372,10 @@
       <c r="A194" s="75"/>
       <c r="B194" s="75"/>
       <c r="C194" s="75"/>
-      <c r="D194" s="76" t="s">
+      <c r="D194" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="E194" s="77"/>
+      <c r="E194" s="76"/>
       <c r="F194" s="75"/>
       <c r="G194" s="75"/>
       <c r="H194" s="75"/>
@@ -18396,10 +18401,10 @@
       <c r="A195" s="75"/>
       <c r="B195" s="75"/>
       <c r="C195" s="75"/>
-      <c r="D195" s="76" t="s">
+      <c r="D195" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="E195" s="77"/>
+      <c r="E195" s="76"/>
       <c r="F195" s="75"/>
       <c r="G195" s="75"/>
       <c r="H195" s="75"/>
@@ -18425,10 +18430,10 @@
       <c r="A196" s="75"/>
       <c r="B196" s="75"/>
       <c r="C196" s="75"/>
-      <c r="D196" s="76" t="s">
+      <c r="D196" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="E196" s="77"/>
+      <c r="E196" s="76"/>
       <c r="F196" s="75"/>
       <c r="G196" s="75"/>
       <c r="H196" s="75"/>
@@ -18454,10 +18459,10 @@
       <c r="A197" s="75"/>
       <c r="B197" s="75"/>
       <c r="C197" s="75"/>
-      <c r="D197" s="76" t="s">
+      <c r="D197" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="E197" s="77"/>
+      <c r="E197" s="76"/>
       <c r="F197" s="75"/>
       <c r="G197" s="75"/>
       <c r="H197" s="75"/>
@@ -18483,10 +18488,10 @@
       <c r="A198" s="75"/>
       <c r="B198" s="75"/>
       <c r="C198" s="75"/>
-      <c r="D198" s="76" t="s">
+      <c r="D198" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="E198" s="77"/>
+      <c r="E198" s="76"/>
       <c r="F198" s="75"/>
       <c r="G198" s="75"/>
       <c r="H198" s="75"/>
@@ -18512,10 +18517,10 @@
       <c r="A199" s="75"/>
       <c r="B199" s="75"/>
       <c r="C199" s="75"/>
-      <c r="D199" s="76" t="s">
+      <c r="D199" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="E199" s="77"/>
+      <c r="E199" s="76"/>
       <c r="F199" s="75"/>
       <c r="G199" s="75"/>
       <c r="H199" s="75"/>
@@ -18541,10 +18546,10 @@
       <c r="A200" s="75"/>
       <c r="B200" s="75"/>
       <c r="C200" s="75"/>
-      <c r="D200" s="76" t="s">
+      <c r="D200" s="27" t="s">
         <v>533</v>
       </c>
-      <c r="E200" s="77"/>
+      <c r="E200" s="76"/>
       <c r="F200" s="75"/>
       <c r="G200" s="75"/>
       <c r="H200" s="75"/>
@@ -18570,10 +18575,10 @@
       <c r="A201" s="75"/>
       <c r="B201" s="75"/>
       <c r="C201" s="75"/>
-      <c r="D201" s="76" t="s">
+      <c r="D201" s="27" t="s">
         <v>534</v>
       </c>
-      <c r="E201" s="77"/>
+      <c r="E201" s="76"/>
       <c r="F201" s="75"/>
       <c r="G201" s="75"/>
       <c r="H201" s="75"/>
@@ -18599,10 +18604,10 @@
       <c r="A202" s="75"/>
       <c r="B202" s="75"/>
       <c r="C202" s="75"/>
-      <c r="D202" s="76" t="s">
+      <c r="D202" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="E202" s="77"/>
+      <c r="E202" s="76"/>
       <c r="F202" s="75"/>
       <c r="G202" s="75"/>
       <c r="H202" s="75"/>
@@ -18628,10 +18633,10 @@
       <c r="A203" s="75"/>
       <c r="B203" s="75"/>
       <c r="C203" s="75"/>
-      <c r="D203" s="76" t="s">
+      <c r="D203" s="27" t="s">
         <v>536</v>
       </c>
-      <c r="E203" s="77"/>
+      <c r="E203" s="76"/>
       <c r="F203" s="75"/>
       <c r="G203" s="75"/>
       <c r="H203" s="75"/>
@@ -18657,10 +18662,10 @@
       <c r="A204" s="75"/>
       <c r="B204" s="75"/>
       <c r="C204" s="75"/>
-      <c r="D204" s="76" t="s">
+      <c r="D204" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="E204" s="77"/>
+      <c r="E204" s="76"/>
       <c r="F204" s="75"/>
       <c r="G204" s="75"/>
       <c r="H204" s="75"/>
@@ -18686,10 +18691,10 @@
       <c r="A205" s="75"/>
       <c r="B205" s="75"/>
       <c r="C205" s="75"/>
-      <c r="D205" s="76" t="s">
+      <c r="D205" s="27" t="s">
         <v>538</v>
       </c>
-      <c r="E205" s="77"/>
+      <c r="E205" s="76"/>
       <c r="F205" s="75"/>
       <c r="G205" s="75"/>
       <c r="H205" s="75"/>
@@ -18715,10 +18720,10 @@
       <c r="A206" s="75"/>
       <c r="B206" s="75"/>
       <c r="C206" s="75"/>
-      <c r="D206" s="76" t="s">
+      <c r="D206" s="27" t="s">
         <v>539</v>
       </c>
-      <c r="E206" s="77"/>
+      <c r="E206" s="76"/>
       <c r="F206" s="75"/>
       <c r="G206" s="75"/>
       <c r="H206" s="75"/>
@@ -18744,10 +18749,10 @@
       <c r="A207" s="75"/>
       <c r="B207" s="75"/>
       <c r="C207" s="75"/>
-      <c r="D207" s="76" t="s">
+      <c r="D207" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="E207" s="77"/>
+      <c r="E207" s="76"/>
       <c r="F207" s="75"/>
       <c r="G207" s="75"/>
       <c r="H207" s="75"/>
@@ -18773,10 +18778,10 @@
       <c r="A208" s="75"/>
       <c r="B208" s="75"/>
       <c r="C208" s="75"/>
-      <c r="D208" s="76" t="s">
+      <c r="D208" s="27" t="s">
         <v>541</v>
       </c>
-      <c r="E208" s="77"/>
+      <c r="E208" s="76"/>
       <c r="F208" s="75"/>
       <c r="G208" s="75"/>
       <c r="H208" s="75"/>
@@ -18802,10 +18807,10 @@
       <c r="A209" s="75"/>
       <c r="B209" s="75"/>
       <c r="C209" s="75"/>
-      <c r="D209" s="76" t="s">
+      <c r="D209" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="E209" s="77"/>
+      <c r="E209" s="76"/>
       <c r="F209" s="75"/>
       <c r="G209" s="75"/>
       <c r="H209" s="75"/>
@@ -18831,10 +18836,10 @@
       <c r="A210" s="75"/>
       <c r="B210" s="75"/>
       <c r="C210" s="75"/>
-      <c r="D210" s="76" t="s">
+      <c r="D210" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="E210" s="77"/>
+      <c r="E210" s="76"/>
       <c r="F210" s="75"/>
       <c r="G210" s="75"/>
       <c r="H210" s="75"/>
@@ -18860,10 +18865,10 @@
       <c r="A211" s="75"/>
       <c r="B211" s="75"/>
       <c r="C211" s="75"/>
-      <c r="D211" s="76" t="s">
+      <c r="D211" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="E211" s="77"/>
+      <c r="E211" s="76"/>
       <c r="F211" s="75"/>
       <c r="G211" s="75"/>
       <c r="H211" s="75"/>
@@ -18889,10 +18894,10 @@
       <c r="A212" s="75"/>
       <c r="B212" s="75"/>
       <c r="C212" s="75"/>
-      <c r="D212" s="76" t="s">
+      <c r="D212" s="27" t="s">
         <v>545</v>
       </c>
-      <c r="E212" s="77"/>
+      <c r="E212" s="76"/>
       <c r="F212" s="75"/>
       <c r="G212" s="75"/>
       <c r="H212" s="75"/>
@@ -18918,10 +18923,10 @@
       <c r="A213" s="75"/>
       <c r="B213" s="75"/>
       <c r="C213" s="75"/>
-      <c r="D213" s="76" t="s">
+      <c r="D213" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="E213" s="77"/>
+      <c r="E213" s="76"/>
       <c r="F213" s="75"/>
       <c r="G213" s="75"/>
       <c r="H213" s="75"/>
@@ -18947,10 +18952,10 @@
       <c r="A214" s="75"/>
       <c r="B214" s="75"/>
       <c r="C214" s="75"/>
-      <c r="D214" s="76" t="s">
+      <c r="D214" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="E214" s="77"/>
+      <c r="E214" s="76"/>
       <c r="F214" s="75"/>
       <c r="G214" s="75"/>
       <c r="H214" s="75"/>
@@ -18976,10 +18981,10 @@
       <c r="A215" s="75"/>
       <c r="B215" s="75"/>
       <c r="C215" s="75"/>
-      <c r="D215" s="76" t="s">
+      <c r="D215" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="E215" s="77"/>
+      <c r="E215" s="76"/>
       <c r="F215" s="75"/>
       <c r="G215" s="75"/>
       <c r="H215" s="75"/>
@@ -19005,10 +19010,10 @@
       <c r="A216" s="75"/>
       <c r="B216" s="75"/>
       <c r="C216" s="75"/>
-      <c r="D216" s="76" t="s">
+      <c r="D216" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="E216" s="77"/>
+      <c r="E216" s="76"/>
       <c r="F216" s="75"/>
       <c r="G216" s="75"/>
       <c r="H216" s="75"/>
@@ -19034,10 +19039,10 @@
       <c r="A217" s="75"/>
       <c r="B217" s="75"/>
       <c r="C217" s="75"/>
-      <c r="D217" s="76" t="s">
+      <c r="D217" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="E217" s="77"/>
+      <c r="E217" s="76"/>
       <c r="F217" s="75"/>
       <c r="G217" s="75"/>
       <c r="H217" s="75"/>
@@ -19063,10 +19068,10 @@
       <c r="A218" s="75"/>
       <c r="B218" s="75"/>
       <c r="C218" s="75"/>
-      <c r="D218" s="76" t="s">
+      <c r="D218" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="E218" s="77"/>
+      <c r="E218" s="76"/>
       <c r="F218" s="75"/>
       <c r="G218" s="75"/>
       <c r="H218" s="75"/>
@@ -19092,10 +19097,10 @@
       <c r="A219" s="75"/>
       <c r="B219" s="75"/>
       <c r="C219" s="75"/>
-      <c r="D219" s="76" t="s">
+      <c r="D219" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="E219" s="77"/>
+      <c r="E219" s="76"/>
       <c r="F219" s="75"/>
       <c r="G219" s="75"/>
       <c r="H219" s="75"/>
@@ -19121,10 +19126,10 @@
       <c r="A220" s="75"/>
       <c r="B220" s="75"/>
       <c r="C220" s="75"/>
-      <c r="D220" s="76" t="s">
+      <c r="D220" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="E220" s="77"/>
+      <c r="E220" s="76"/>
       <c r="F220" s="75"/>
       <c r="G220" s="75"/>
       <c r="H220" s="75"/>
@@ -19150,10 +19155,10 @@
       <c r="A221" s="75"/>
       <c r="B221" s="75"/>
       <c r="C221" s="75"/>
-      <c r="D221" s="76" t="s">
+      <c r="D221" s="27" t="s">
         <v>554</v>
       </c>
-      <c r="E221" s="77"/>
+      <c r="E221" s="76"/>
       <c r="F221" s="75"/>
       <c r="G221" s="75"/>
       <c r="H221" s="75"/>
@@ -19179,10 +19184,10 @@
       <c r="A222" s="75"/>
       <c r="B222" s="75"/>
       <c r="C222" s="75"/>
-      <c r="D222" s="76" t="s">
+      <c r="D222" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="E222" s="77"/>
+      <c r="E222" s="76"/>
       <c r="F222" s="75"/>
       <c r="G222" s="75"/>
       <c r="H222" s="75"/>
@@ -19208,10 +19213,10 @@
       <c r="A223" s="75"/>
       <c r="B223" s="75"/>
       <c r="C223" s="75"/>
-      <c r="D223" s="76" t="s">
+      <c r="D223" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="E223" s="77"/>
+      <c r="E223" s="76"/>
       <c r="F223" s="75"/>
       <c r="G223" s="75"/>
       <c r="H223" s="75"/>
@@ -19237,10 +19242,10 @@
       <c r="A224" s="75"/>
       <c r="B224" s="75"/>
       <c r="C224" s="75"/>
-      <c r="D224" s="76" t="s">
+      <c r="D224" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="E224" s="77"/>
+      <c r="E224" s="76"/>
       <c r="F224" s="75"/>
       <c r="G224" s="75"/>
       <c r="H224" s="75"/>
@@ -19266,10 +19271,10 @@
       <c r="A225" s="75"/>
       <c r="B225" s="75"/>
       <c r="C225" s="75"/>
-      <c r="D225" s="76" t="s">
+      <c r="D225" s="27" t="s">
         <v>558</v>
       </c>
-      <c r="E225" s="77"/>
+      <c r="E225" s="76"/>
       <c r="F225" s="75"/>
       <c r="G225" s="75"/>
       <c r="H225" s="75"/>
@@ -19295,10 +19300,10 @@
       <c r="A226" s="75"/>
       <c r="B226" s="75"/>
       <c r="C226" s="75"/>
-      <c r="D226" s="76" t="s">
+      <c r="D226" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="E226" s="77"/>
+      <c r="E226" s="76"/>
       <c r="F226" s="75"/>
       <c r="G226" s="75"/>
       <c r="H226" s="75"/>
@@ -19324,10 +19329,10 @@
       <c r="A227" s="75"/>
       <c r="B227" s="75"/>
       <c r="C227" s="75"/>
-      <c r="D227" s="76" t="s">
+      <c r="D227" s="27" t="s">
         <v>560</v>
       </c>
-      <c r="E227" s="77"/>
+      <c r="E227" s="76"/>
       <c r="F227" s="75"/>
       <c r="G227" s="75"/>
       <c r="H227" s="75"/>
@@ -19353,10 +19358,10 @@
       <c r="A228" s="75"/>
       <c r="B228" s="75"/>
       <c r="C228" s="75"/>
-      <c r="D228" s="76" t="s">
+      <c r="D228" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="E228" s="77"/>
+      <c r="E228" s="76"/>
       <c r="F228" s="75"/>
       <c r="G228" s="75"/>
       <c r="H228" s="75"/>
@@ -19382,10 +19387,10 @@
       <c r="A229" s="75"/>
       <c r="B229" s="75"/>
       <c r="C229" s="75"/>
-      <c r="D229" s="76" t="s">
+      <c r="D229" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="E229" s="77"/>
+      <c r="E229" s="76"/>
       <c r="F229" s="75"/>
       <c r="G229" s="75"/>
       <c r="H229" s="75"/>
@@ -19411,10 +19416,10 @@
       <c r="A230" s="75"/>
       <c r="B230" s="75"/>
       <c r="C230" s="75"/>
-      <c r="D230" s="76" t="s">
+      <c r="D230" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="E230" s="77"/>
+      <c r="E230" s="76"/>
       <c r="F230" s="75"/>
       <c r="G230" s="75"/>
       <c r="H230" s="75"/>
@@ -19440,10 +19445,10 @@
       <c r="A231" s="75"/>
       <c r="B231" s="75"/>
       <c r="C231" s="75"/>
-      <c r="D231" s="76" t="s">
+      <c r="D231" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="E231" s="77"/>
+      <c r="E231" s="76"/>
       <c r="F231" s="75"/>
       <c r="G231" s="75"/>
       <c r="H231" s="75"/>
@@ -19469,10 +19474,10 @@
       <c r="A232" s="75"/>
       <c r="B232" s="75"/>
       <c r="C232" s="75"/>
-      <c r="D232" s="76" t="s">
+      <c r="D232" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="E232" s="77"/>
+      <c r="E232" s="76"/>
       <c r="F232" s="75"/>
       <c r="G232" s="75"/>
       <c r="H232" s="75"/>
@@ -19498,10 +19503,10 @@
       <c r="A233" s="75"/>
       <c r="B233" s="75"/>
       <c r="C233" s="75"/>
-      <c r="D233" s="76" t="s">
+      <c r="D233" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="E233" s="77"/>
+      <c r="E233" s="76"/>
       <c r="F233" s="75"/>
       <c r="G233" s="75"/>
       <c r="H233" s="75"/>
@@ -19527,10 +19532,10 @@
       <c r="A234" s="75"/>
       <c r="B234" s="75"/>
       <c r="C234" s="75"/>
-      <c r="D234" s="76" t="s">
+      <c r="D234" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="E234" s="77"/>
+      <c r="E234" s="76"/>
       <c r="F234" s="75"/>
       <c r="G234" s="75"/>
       <c r="H234" s="75"/>
@@ -19556,10 +19561,10 @@
       <c r="A235" s="75"/>
       <c r="B235" s="75"/>
       <c r="C235" s="75"/>
-      <c r="D235" s="76" t="s">
+      <c r="D235" s="77" t="s">
         <v>568</v>
       </c>
-      <c r="E235" s="77"/>
+      <c r="E235" s="76"/>
       <c r="F235" s="75"/>
       <c r="G235" s="75"/>
       <c r="H235" s="75"/>
@@ -19585,10 +19590,10 @@
       <c r="A236" s="75"/>
       <c r="B236" s="75"/>
       <c r="C236" s="75"/>
-      <c r="D236" s="76" t="s">
+      <c r="D236" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="E236" s="77"/>
+      <c r="E236" s="76"/>
       <c r="F236" s="75"/>
       <c r="G236" s="75"/>
       <c r="H236" s="75"/>
@@ -19614,10 +19619,10 @@
       <c r="A237" s="75"/>
       <c r="B237" s="75"/>
       <c r="C237" s="75"/>
-      <c r="D237" s="76" t="s">
+      <c r="D237" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="E237" s="77"/>
+      <c r="E237" s="76"/>
       <c r="F237" s="75"/>
       <c r="G237" s="75"/>
       <c r="H237" s="75"/>
@@ -19643,10 +19648,10 @@
       <c r="A238" s="75"/>
       <c r="B238" s="75"/>
       <c r="C238" s="75"/>
-      <c r="D238" s="76" t="s">
+      <c r="D238" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="E238" s="77"/>
+      <c r="E238" s="76"/>
       <c r="F238" s="75"/>
       <c r="G238" s="75"/>
       <c r="H238" s="75"/>
@@ -19672,10 +19677,10 @@
       <c r="A239" s="75"/>
       <c r="B239" s="75"/>
       <c r="C239" s="75"/>
-      <c r="D239" s="76" t="s">
+      <c r="D239" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="E239" s="77"/>
+      <c r="E239" s="76"/>
       <c r="F239" s="75"/>
       <c r="G239" s="75"/>
       <c r="H239" s="75"/>
@@ -19701,10 +19706,10 @@
       <c r="A240" s="75"/>
       <c r="B240" s="75"/>
       <c r="C240" s="75"/>
-      <c r="D240" s="76" t="s">
+      <c r="D240" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="E240" s="77"/>
+      <c r="E240" s="76"/>
       <c r="F240" s="75"/>
       <c r="G240" s="75"/>
       <c r="H240" s="75"/>
@@ -19730,10 +19735,10 @@
       <c r="A241" s="75"/>
       <c r="B241" s="75"/>
       <c r="C241" s="75"/>
-      <c r="D241" s="76" t="s">
+      <c r="D241" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="E241" s="77"/>
+      <c r="E241" s="76"/>
       <c r="F241" s="75"/>
       <c r="G241" s="75"/>
       <c r="H241" s="75"/>
@@ -19759,10 +19764,10 @@
       <c r="A242" s="75"/>
       <c r="B242" s="75"/>
       <c r="C242" s="75"/>
-      <c r="D242" s="76" t="s">
+      <c r="D242" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="E242" s="77"/>
+      <c r="E242" s="76"/>
       <c r="F242" s="75"/>
       <c r="G242" s="75"/>
       <c r="H242" s="75"/>
@@ -19788,8 +19793,10 @@
       <c r="A243" s="75"/>
       <c r="B243" s="75"/>
       <c r="C243" s="75"/>
-      <c r="D243" s="79"/>
-      <c r="E243" s="77"/>
+      <c r="D243" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E243" s="76"/>
       <c r="F243" s="75"/>
       <c r="G243" s="75"/>
       <c r="H243" s="75"/>
@@ -19815,8 +19822,8 @@
       <c r="A244" s="75"/>
       <c r="B244" s="75"/>
       <c r="C244" s="75"/>
-      <c r="D244" s="79"/>
-      <c r="E244" s="77"/>
+      <c r="D244" s="78"/>
+      <c r="E244" s="76"/>
       <c r="F244" s="75"/>
       <c r="G244" s="75"/>
       <c r="H244" s="75"/>
@@ -19842,8 +19849,8 @@
       <c r="A245" s="75"/>
       <c r="B245" s="75"/>
       <c r="C245" s="75"/>
-      <c r="D245" s="79"/>
-      <c r="E245" s="77"/>
+      <c r="D245" s="78"/>
+      <c r="E245" s="76"/>
       <c r="F245" s="75"/>
       <c r="G245" s="75"/>
       <c r="H245" s="75"/>
@@ -19869,8 +19876,8 @@
       <c r="A246" s="75"/>
       <c r="B246" s="75"/>
       <c r="C246" s="75"/>
-      <c r="D246" s="79"/>
-      <c r="E246" s="77"/>
+      <c r="D246" s="78"/>
+      <c r="E246" s="76"/>
       <c r="F246" s="75"/>
       <c r="G246" s="75"/>
       <c r="H246" s="75"/>
@@ -19896,8 +19903,8 @@
       <c r="A247" s="75"/>
       <c r="B247" s="75"/>
       <c r="C247" s="75"/>
-      <c r="D247" s="79"/>
-      <c r="E247" s="77"/>
+      <c r="D247" s="78"/>
+      <c r="E247" s="76"/>
       <c r="F247" s="75"/>
       <c r="G247" s="75"/>
       <c r="H247" s="75"/>
@@ -19923,8 +19930,8 @@
       <c r="A248" s="75"/>
       <c r="B248" s="75"/>
       <c r="C248" s="75"/>
-      <c r="D248" s="79"/>
-      <c r="E248" s="77"/>
+      <c r="D248" s="78"/>
+      <c r="E248" s="76"/>
       <c r="F248" s="75"/>
       <c r="G248" s="75"/>
       <c r="H248" s="75"/>
@@ -19950,8 +19957,8 @@
       <c r="A249" s="75"/>
       <c r="B249" s="75"/>
       <c r="C249" s="75"/>
-      <c r="D249" s="79"/>
-      <c r="E249" s="77"/>
+      <c r="D249" s="78"/>
+      <c r="E249" s="76"/>
       <c r="F249" s="75"/>
       <c r="G249" s="75"/>
       <c r="H249" s="75"/>
@@ -19977,8 +19984,8 @@
       <c r="A250" s="75"/>
       <c r="B250" s="75"/>
       <c r="C250" s="75"/>
-      <c r="D250" s="79"/>
-      <c r="E250" s="77"/>
+      <c r="D250" s="78"/>
+      <c r="E250" s="76"/>
       <c r="F250" s="75"/>
       <c r="G250" s="75"/>
       <c r="H250" s="75"/>
@@ -20004,8 +20011,8 @@
       <c r="A251" s="75"/>
       <c r="B251" s="75"/>
       <c r="C251" s="75"/>
-      <c r="D251" s="79"/>
-      <c r="E251" s="77"/>
+      <c r="D251" s="78"/>
+      <c r="E251" s="76"/>
       <c r="F251" s="75"/>
       <c r="G251" s="75"/>
       <c r="H251" s="75"/>
@@ -20031,8 +20038,8 @@
       <c r="A252" s="75"/>
       <c r="B252" s="75"/>
       <c r="C252" s="75"/>
-      <c r="D252" s="79"/>
-      <c r="E252" s="77"/>
+      <c r="D252" s="78"/>
+      <c r="E252" s="76"/>
       <c r="F252" s="75"/>
       <c r="G252" s="75"/>
       <c r="H252" s="75"/>
@@ -20058,8 +20065,8 @@
       <c r="A253" s="75"/>
       <c r="B253" s="75"/>
       <c r="C253" s="75"/>
-      <c r="D253" s="79"/>
-      <c r="E253" s="77"/>
+      <c r="D253" s="78"/>
+      <c r="E253" s="76"/>
       <c r="F253" s="75"/>
       <c r="G253" s="75"/>
       <c r="H253" s="75"/>
@@ -20085,8 +20092,8 @@
       <c r="A254" s="75"/>
       <c r="B254" s="75"/>
       <c r="C254" s="75"/>
-      <c r="D254" s="79"/>
-      <c r="E254" s="77"/>
+      <c r="D254" s="78"/>
+      <c r="E254" s="76"/>
       <c r="F254" s="75"/>
       <c r="G254" s="75"/>
       <c r="H254" s="75"/>
@@ -20109,55 +20116,55 @@
       <c r="Y254" s="75"/>
     </row>
     <row r="255" ht="12.75" customHeight="1">
-      <c r="A255" s="80"/>
-      <c r="B255" s="80"/>
-      <c r="C255" s="81"/>
-      <c r="D255" s="81"/>
-      <c r="E255" s="82"/>
-      <c r="F255" s="80"/>
-      <c r="G255" s="80"/>
-      <c r="H255" s="80"/>
-      <c r="I255" s="80"/>
-      <c r="J255" s="80"/>
-      <c r="K255" s="80"/>
-      <c r="L255" s="80"/>
-      <c r="M255" s="80"/>
-      <c r="N255" s="80"/>
-      <c r="O255" s="80"/>
-      <c r="P255" s="80"/>
-      <c r="Q255" s="80"/>
-      <c r="R255" s="80"/>
-      <c r="S255" s="80"/>
-      <c r="T255" s="80"/>
-      <c r="U255" s="80"/>
-      <c r="V255" s="80"/>
-      <c r="W255" s="80"/>
-      <c r="X255" s="80"/>
-      <c r="Y255" s="80"/>
+      <c r="A255" s="79"/>
+      <c r="B255" s="79"/>
+      <c r="C255" s="80"/>
+      <c r="D255" s="80"/>
+      <c r="E255" s="81"/>
+      <c r="F255" s="79"/>
+      <c r="G255" s="79"/>
+      <c r="H255" s="79"/>
+      <c r="I255" s="79"/>
+      <c r="J255" s="79"/>
+      <c r="K255" s="79"/>
+      <c r="L255" s="79"/>
+      <c r="M255" s="79"/>
+      <c r="N255" s="79"/>
+      <c r="O255" s="79"/>
+      <c r="P255" s="79"/>
+      <c r="Q255" s="79"/>
+      <c r="R255" s="79"/>
+      <c r="S255" s="79"/>
+      <c r="T255" s="79"/>
+      <c r="U255" s="79"/>
+      <c r="V255" s="79"/>
+      <c r="W255" s="79"/>
+      <c r="X255" s="79"/>
+      <c r="Y255" s="79"/>
     </row>
     <row r="256" ht="12.75" customHeight="1">
-      <c r="A256" s="80"/>
-      <c r="B256" s="80"/>
-      <c r="C256" s="81"/>
-      <c r="D256" s="81"/>
-      <c r="E256" s="82"/>
-      <c r="F256" s="80"/>
-      <c r="G256" s="80"/>
-      <c r="H256" s="80"/>
-      <c r="I256" s="80"/>
-      <c r="M256" s="80"/>
-      <c r="N256" s="80"/>
-      <c r="O256" s="80"/>
-      <c r="P256" s="80"/>
-      <c r="Q256" s="80"/>
-      <c r="R256" s="80"/>
-      <c r="S256" s="80"/>
-      <c r="T256" s="80"/>
-      <c r="U256" s="80"/>
-      <c r="V256" s="80"/>
-      <c r="W256" s="80"/>
-      <c r="X256" s="80"/>
-      <c r="Y256" s="80"/>
+      <c r="A256" s="79"/>
+      <c r="B256" s="79"/>
+      <c r="C256" s="80"/>
+      <c r="D256" s="80"/>
+      <c r="E256" s="81"/>
+      <c r="F256" s="79"/>
+      <c r="G256" s="79"/>
+      <c r="H256" s="79"/>
+      <c r="I256" s="79"/>
+      <c r="M256" s="79"/>
+      <c r="N256" s="79"/>
+      <c r="O256" s="79"/>
+      <c r="P256" s="79"/>
+      <c r="Q256" s="79"/>
+      <c r="R256" s="79"/>
+      <c r="S256" s="79"/>
+      <c r="T256" s="79"/>
+      <c r="U256" s="79"/>
+      <c r="V256" s="79"/>
+      <c r="W256" s="79"/>
+      <c r="X256" s="79"/>
+      <c r="Y256" s="79"/>
     </row>
     <row r="257" ht="12.75" customHeight="1"/>
     <row r="258" ht="12.75" customHeight="1"/>
@@ -20346,563 +20353,563 @@
     <row r="441" ht="12.75" customHeight="1"/>
     <row r="442" ht="12.75" customHeight="1"/>
     <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
